--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1714F89E-CE73-4134-BA12-1F49BD6C2172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4413FB78-708E-4B51-823E-FE23268A34E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>leetcode 704</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除元素</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -301,6 +309,54 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,54 +364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +652,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -658,88 +666,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
-        <v>44621</v>
+      <c r="C3" s="6">
+        <v>44593</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44594</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -750,300 +764,300 @@
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="15"/>
       <c r="E31" s="13"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="15"/>
       <c r="E39" s="13"/>
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="11"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="11"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4413FB78-708E-4B51-823E-FE23268A34E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B420D0B6-45E0-4958-A754-8AD2EE7C21D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="2388" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>移除元素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 977</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序数组的平方</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +660,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,9 +724,15 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44595</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B420D0B6-45E0-4958-A754-8AD2EE7C21D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B392272-C6FB-4B48-9117-5ED62F6B4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="2388" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>有序数组的平方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 209</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度最小的子数组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +668,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,9 +746,15 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44597</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B392272-C6FB-4B48-9117-5ED62F6B4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D93E9-8D4A-427E-A668-4909A9C5F391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>长度最小的子数组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵II</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +676,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -760,9 +768,15 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44598</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09D93E9-8D4A-427E-A668-4909A9C5F391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1824E3-90E6-45B8-8A30-41CB4EA621ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -76,6 +76,22 @@
   </si>
   <si>
     <t>螺旋矩阵II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 203</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除链表元素</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -690,7 +706,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
       <c r="D1" s="1"/>
@@ -782,28 +800,36 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44599</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -870,9 +896,9 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
@@ -886,9 +912,9 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
       <c r="F21" s="8"/>
@@ -934,9 +960,9 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
@@ -950,12 +976,12 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -969,9 +995,9 @@
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="16"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1017,9 +1043,9 @@
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="8"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1030,33 +1056,33 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8"/>
@@ -1085,32 +1111,16 @@
       <c r="E45" s="5"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1824E3-90E6-45B8-8A30-41CB4EA621ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FBF6B-AE5D-4FA9-8497-755583D7D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>移除链表元素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 707</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计链表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +700,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -824,9 +832,15 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44600</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FBF6B-AE5D-4FA9-8497-755583D7D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A7467-115B-4519-A3EB-A9671590B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,6 +100,14 @@
   </si>
   <si>
     <t>设计链表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> leetcode 206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +708,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -846,9 +854,15 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44601</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A7467-115B-4519-A3EB-A9671590B774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDEC80-4546-40CE-ABCE-F55DCB004EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>反转链表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两交换链表中的结点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +716,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -868,9 +876,15 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44603</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CDEC80-4546-40CE-ABCE-F55DCB004EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B2796-CE3E-4D18-9DFD-F3493C84ACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>两两交换链表中的结点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表的第 N 个结点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +724,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -890,9 +898,15 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44604</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B2796-CE3E-4D18-9DFD-F3493C84ACD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0572E2FC-CAB9-458D-877A-3281FE118E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>删除链表的第 N 个结点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 02.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表相交</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +732,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -912,9 +920,15 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44605</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
       <c r="F14" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0572E2FC-CAB9-458D-877A-3281FE118E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F0497-8DBA-4731-8764-52CAF02BDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>链表相交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 142</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形链表II</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +740,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -934,9 +942,15 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44606</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F0497-8DBA-4731-8764-52CAF02BDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F299DC-2906-46A3-BF31-E58CCB56BE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>环形链表II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 242</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的字母异位词</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -739,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -956,17 +968,25 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44607</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
@@ -980,9 +1000,9 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>
@@ -1204,7 +1224,7 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F299DC-2906-46A3-BF31-E58CCB56BE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FCF080-91BC-42F1-B391-1A02C1CE038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>有效的字母异位词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 349</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个数组的交集</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -751,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -968,9 +976,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="7"/>
@@ -978,15 +984,9 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6">
-        <v>44607</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
@@ -1171,25 +1171,39 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="8"/>
+      <c r="D40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="8"/>
+      <c r="D41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="6">
+        <v>44607</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="8"/>
+      <c r="D42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="6">
+        <v>44608</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1216,7 +1230,7 @@
       <c r="F45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D37:F37"/>
@@ -1225,6 +1239,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D40:F40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FCF080-91BC-42F1-B391-1A02C1CE038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC605FD4-7FE1-4ABE-8284-214E9055A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>两个数组的交集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 344</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转字符串</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +772,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -976,7 +988,9 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="7"/>
@@ -984,9 +998,15 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44609</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC605FD4-7FE1-4ABE-8284-214E9055A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483A809-DEAB-4292-ACFE-D7AF717F66C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>反转字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 541</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转字符串II</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +780,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1012,9 +1020,15 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44610</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483A809-DEAB-4292-ACFE-D7AF717F66C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BECD8-237C-49CF-99FF-5AAB9AF9AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -180,6 +180,14 @@
   </si>
   <si>
     <t>反转字符串II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer 05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换空格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +788,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1034,9 +1042,15 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44611</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
       <c r="F19" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BECD8-237C-49CF-99FF-5AAB9AF9AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972C2DF-ABF2-417E-A617-E504D239B6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -188,6 +188,14 @@
   </si>
   <si>
     <t>替换空格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer 58-II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左旋转字符串</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +796,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1056,9 +1064,15 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44614</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972C2DF-ABF2-417E-A617-E504D239B6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A933FC-2423-4C7B-961B-4541AF5D439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>左旋转字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现 strStr()</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +804,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1078,9 +1086,15 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44615</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
       <c r="F21" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A933FC-2423-4C7B-961B-4541AF5D439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80122DBB-6D5B-49A1-BD0A-B62625DCEFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>实现 strStr()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 459</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复的子字符串</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +812,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1100,9 +1108,15 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44616</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
       <c r="F22" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80122DBB-6D5B-49A1-BD0A-B62625DCEFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB9B09-19E6-4C23-B271-E292A1B89719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="3432" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="3120" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>重复的子字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -454,6 +458,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -499,15 +540,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,6 +556,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -826,11 +867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
@@ -920,14 +961,14 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1028,11 +1069,11 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
@@ -1122,17 +1163,25 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="7"/>
       <c r="E23" s="5"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44617</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
@@ -1154,9 +1203,9 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
@@ -1173,9 +1222,9 @@
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="16"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1237,9 +1286,9 @@
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="16"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1250,22 +1299,22 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="12" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1320,7 +1369,7 @@
       <c r="F45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D37:F37"/>
@@ -1330,6 +1379,7 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB9B09-19E6-4C23-B271-E292A1B89719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0558D-2205-4F05-8875-95AB5F413156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3120" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -853,7 +853,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1187,9 +1187,15 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44617</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A0558D-2205-4F05-8875-95AB5F413156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469F071C-64DC-4D95-B898-C66B28E2F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3120" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -853,7 +853,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1201,9 +1201,15 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44617</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469F071C-64DC-4D95-B898-C66B28E2F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26ABEC6-9C36-4328-8BDF-1EBCF1EACCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3120" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>双指针法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 151</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转字符串里的单词</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +861,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1215,9 +1223,15 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44617</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26ABEC6-9C36-4328-8BDF-1EBCF1EACCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55162F4A-6BC5-4079-B6E6-68CF21B95FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3120" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>反转字符串里的单词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 206</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +865,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1237,9 +1241,15 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6">
+        <v>44618</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="5"/>
       <c r="F28" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55162F4A-6BC5-4079-B6E6-68CF21B95FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B1BF6-D326-48D8-B65C-E835E2A21E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3120" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5076" yWindow="1980" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1255,9 +1255,15 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44618</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="10"/>
       <c r="F29" s="13"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B1BF6-D326-48D8-B65C-E835E2A21E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BBB3A-90FB-413A-9D78-188D2473E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5076" yWindow="1980" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -865,7 +865,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1269,9 +1269,15 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44618</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="5"/>
       <c r="F30" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1BBB3A-90FB-413A-9D78-188D2473E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137F383-F401-4A9E-80FF-3907BDC4B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5076" yWindow="1980" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -865,7 +865,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1283,9 +1283,15 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44619</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="5"/>
       <c r="F31" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137F383-F401-4A9E-80FF-3907BDC4B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152080C-0BAE-4EDE-9892-83A659C55323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5076" yWindow="1980" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>leetcode 206</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈与队列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 232</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用栈实现队列</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1313,17 +1325,25 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44621</v>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="5"/>
       <c r="F35" s="8"/>
@@ -1423,7 +1443,7 @@
       <c r="F45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D37:F37"/>
@@ -1434,6 +1454,7 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D152080C-0BAE-4EDE-9892-83A659C55323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D88C7F-8FA7-43BF-A2F4-ABB780BAD503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -240,6 +240,14 @@
   </si>
   <si>
     <t>用栈实现队列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 225</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用队列实现栈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +885,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1349,9 +1357,15 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44622</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="5"/>
       <c r="F36" s="8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D88C7F-8FA7-43BF-A2F4-ABB780BAD503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C55059-0461-492C-9B6D-A8CA83E4525D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10092" yWindow="2292" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>用队列实现栈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcoe 20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的括号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -884,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1371,9 +1379,15 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="6">
+        <v>44623</v>
+      </c>
       <c r="D37" s="12"/>
       <c r="E37" s="10"/>
       <c r="F37" s="13"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C55059-0461-492C-9B6D-A8CA83E4525D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B83C03-C40C-4685-A65E-3ECF6D4E001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10092" yWindow="2292" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6432" yWindow="2760" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>有效的括号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 1047</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字符串中的所有相邻重复项</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -892,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1393,25 +1401,31 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="6">
+        <v>44624</v>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="9" t="s">
         <v>29</v>
       </c>
@@ -1471,11 +1485,9 @@
       <c r="F45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A40:C40"/>
+  <mergeCells count="9">
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>

--- a/代码随想录刷题/代码随想录刷题记录.xlsx
+++ b/代码随想录刷题/代码随想录刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Project\leetcode\代码随想录刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B83C03-C40C-4685-A65E-3ECF6D4E001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8048271F-4C1F-47C9-BA63-964A6A67CE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6432" yWindow="2760" windowWidth="15864" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -264,6 +264,14 @@
   </si>
   <si>
     <t>删除字符串中的所有相邻重复项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆波兰表达式求值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -582,28 +590,28 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,7 +909,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -915,11 +923,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
@@ -1009,14 +1017,14 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1117,11 +1125,11 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="8"/>
@@ -1300,9 +1308,9 @@
       <c r="C29" s="6">
         <v>44618</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1349,11 +1357,11 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
       <c r="F34" s="8"/>
@@ -1396,9 +1404,9 @@
       <c r="C37" s="6">
         <v>44623</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1415,9 +1423,15 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="6">
+        <v>44625</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
       <c r="F39" s="8"/>
@@ -1426,11 +1440,11 @@
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1486,15 +1500,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
